--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,258 +46,249 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>okay</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>di</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>parts</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>picture</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
     <t>look</t>
   </si>
   <si>
-    <t>use</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>never</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>think</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>get</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>got</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -307,85 +298,82 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>fun</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>grandson</t>
-  </si>
-  <si>
     <t>playing</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>good</t>
   </si>
   <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -746,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,10 +742,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -815,13 +803,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -833,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K3">
-        <v>0.8615384615384616</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -857,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -865,13 +853,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -883,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K4">
-        <v>0.8518518518518519</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -907,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -915,13 +903,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8620689655172413</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -933,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K5">
-        <v>0.8392857142857143</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M5">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -957,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -965,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8009708737864077</v>
+        <v>0.796875</v>
       </c>
       <c r="C6">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -983,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K6">
-        <v>0.6559139784946236</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1007,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1015,13 +1003,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.796875</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1033,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K7">
-        <v>0.6415094339622641</v>
+        <v>0.65625</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1057,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1065,13 +1053,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7795698924731183</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1083,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K8">
-        <v>0.578125</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1107,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1115,13 +1103,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7849462365591398</v>
+        <v>0.7572815533980582</v>
       </c>
       <c r="C9">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D9">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1133,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K9">
-        <v>0.4585726004922067</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="L9">
-        <v>559</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>560</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1154,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>660</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1165,13 +1153,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7746478873239436</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1183,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K10">
-        <v>0.4202898550724637</v>
+        <v>0.4446267432321575</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>542</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>543</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1204,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>40</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1215,13 +1203,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7162162162162162</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="C11">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1233,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K11">
-        <v>0.4166666666666667</v>
+        <v>0.4074605451936872</v>
       </c>
       <c r="L11">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M11">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1254,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1265,13 +1253,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1283,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K12">
-        <v>0.4107883817427386</v>
+        <v>0.3817427385892116</v>
       </c>
       <c r="L12">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="M12">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1307,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1315,13 +1303,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6571428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1333,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K13">
-        <v>0.35</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1357,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1365,13 +1353,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6545454545454545</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1383,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K14">
-        <v>0.3302752293577982</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="L14">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="M14">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1407,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>219</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1415,13 +1403,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6458333333333334</v>
+        <v>0.6218487394957983</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1433,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K15">
-        <v>0.3012048192771085</v>
+        <v>0.308868501529052</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1457,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>116</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1465,13 +1453,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6386554621848739</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C16">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1483,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K16">
-        <v>0.2592592592592592</v>
+        <v>0.3</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1507,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>140</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1515,13 +1503,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6222222222222222</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1536,16 +1524,16 @@
         <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K17">
-        <v>0.2109375</v>
+        <v>0.2265625</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1557,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1565,49 +1553,49 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6111111111111112</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K18">
-        <v>0.2</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>100</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1615,13 +1603,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5855072463768116</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="C19">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="D19">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1633,31 +1621,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K19">
-        <v>0.1975806451612903</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>199</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1665,13 +1653,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5740740740740741</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1683,31 +1671,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K20">
-        <v>0.1690140845070423</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1715,13 +1703,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5578947368421052</v>
+        <v>0.5354330708661418</v>
       </c>
       <c r="C21">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D21">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1733,31 +1721,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K21">
-        <v>0.1567567567567568</v>
+        <v>0.1596119929453263</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>156</v>
+        <v>953</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1786,28 +1774,28 @@
         <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K22">
-        <v>0.1528998242530756</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L22">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>964</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1836,16 +1824,16 @@
         <v>31</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K23">
-        <v>0.09192200557103064</v>
+        <v>0.1086350974930362</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1857,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1865,13 +1853,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5060240963855421</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C24">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1883,31 +1871,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K24">
-        <v>0.09096816114359974</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L24">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>1399</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1915,13 +1903,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4921875</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1933,31 +1921,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K25">
-        <v>0.08333333333333333</v>
+        <v>0.0859375</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="N25">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O25">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>286</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1965,13 +1953,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.492063492063492</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1983,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K26">
-        <v>0.0804953560371517</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M26">
         <v>27</v>
       </c>
       <c r="N26">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="O26">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
@@ -2015,13 +2003,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4897959183673469</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2033,31 +2021,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K27">
-        <v>0.06417112299465241</v>
+        <v>0.05300859598853868</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>350</v>
+        <v>661</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2065,13 +2053,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4881889763779528</v>
+        <v>0.45</v>
       </c>
       <c r="C28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2083,31 +2071,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K28">
-        <v>0.04825737265415549</v>
+        <v>0.05241935483870968</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N28">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="O28">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2115,49 +2103,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.462962962962963</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>29</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K29">
-        <v>0.03581661891117478</v>
-      </c>
-      <c r="L29">
-        <v>25</v>
-      </c>
-      <c r="M29">
-        <v>32</v>
-      </c>
-      <c r="N29">
-        <v>0.78</v>
-      </c>
-      <c r="O29">
-        <v>0.22</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>673</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2165,13 +2129,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4583333333333333</v>
+        <v>0.421875</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2183,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2191,13 +2155,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4218009478672986</v>
+        <v>0.4123222748815166</v>
       </c>
       <c r="C31">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D31">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2209,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2217,13 +2181,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4137931034482759</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2235,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2243,13 +2207,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4108910891089109</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="C33">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2261,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2269,13 +2233,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4044943820224719</v>
+        <v>0.3880597014925373</v>
       </c>
       <c r="C34">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2287,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2295,13 +2259,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3928571428571428</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2313,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2321,13 +2285,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3770491803278688</v>
+        <v>0.3861386138613861</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2339,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>38</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2347,13 +2311,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3760683760683761</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C37">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2365,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2373,13 +2337,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3666666666666666</v>
+        <v>0.359375</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2391,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2399,13 +2363,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.34375</v>
+        <v>0.3504273504273504</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2417,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2425,13 +2389,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3333333333333333</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2443,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2451,13 +2415,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3283582089552239</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2469,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2506,10 +2470,10 @@
         <v>0.3076923076923077</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2521,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2529,13 +2493,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3071428571428572</v>
+        <v>0.3006329113924051</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D44">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2547,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>97</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2555,13 +2519,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3043478260869565</v>
+        <v>0.2929936305732484</v>
       </c>
       <c r="C45">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D45">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2573,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>192</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2581,13 +2545,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2993630573248408</v>
+        <v>0.29</v>
       </c>
       <c r="C46">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D46">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2599,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2607,13 +2571,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2989690721649484</v>
+        <v>0.2835051546391752</v>
       </c>
       <c r="C47">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D47">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2625,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2633,13 +2597,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2959183673469388</v>
+        <v>0.2803738317757009</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D48">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2651,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>69</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2659,13 +2623,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2879746835443038</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C49">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D49">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2677,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2685,13 +2649,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2747252747252747</v>
+        <v>0.2721518987341772</v>
       </c>
       <c r="C50">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2703,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>66</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2711,25 +2675,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.273015873015873</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C51">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D51">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="E51">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>229</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2737,25 +2701,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2633928571428572</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C52">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="D52">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="E52">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F52">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>495</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2763,13 +2727,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2542372881355932</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="C53">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2781,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2789,25 +2753,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2523364485981308</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="C54">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="D54">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>160</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2815,25 +2779,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.25</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C55">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D55">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E55">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>81</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2841,13 +2805,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2474226804123711</v>
+        <v>0.2538461538461538</v>
       </c>
       <c r="C56">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D56">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2859,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2867,13 +2831,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2442528735632184</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="C57">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D57">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2885,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>263</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2893,25 +2857,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2412060301507538</v>
+        <v>0.2356828193832599</v>
       </c>
       <c r="C58">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="D58">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E58">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>151</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2919,13 +2883,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2404371584699453</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="C59">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D59">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2937,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2945,13 +2909,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2371134020618557</v>
+        <v>0.2198952879581152</v>
       </c>
       <c r="C60">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D60">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2963,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2971,25 +2935,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.235632183908046</v>
+        <v>0.2040229885057471</v>
       </c>
       <c r="C61">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D61">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E61">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>133</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2997,13 +2961,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2239467849223947</v>
+        <v>0.1884816753926702</v>
       </c>
       <c r="C62">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="D62">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="E62">
         <v>0.03</v>
@@ -3015,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>350</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3023,13 +2987,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2222222222222222</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C63">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D63">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3041,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>84</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3049,13 +3013,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2076923076923077</v>
+        <v>0.1808219178082192</v>
       </c>
       <c r="C64">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D64">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3067,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>103</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3075,25 +3039,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1989528795811518</v>
+        <v>0.1781376518218623</v>
       </c>
       <c r="C65">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D65">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>153</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3101,25 +3065,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1979166666666667</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C66">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D66">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3127,13 +3091,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1953125</v>
+        <v>0.171875</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D67">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3145,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3153,25 +3117,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1785714285714286</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C68">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D68">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E68">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>299</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3179,13 +3143,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1773584905660377</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="C69">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D69">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E69">
         <v>0.04</v>
@@ -3197,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>218</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3205,13 +3169,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1739130434782609</v>
+        <v>0.1689189189189189</v>
       </c>
       <c r="C70">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D70">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3223,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3231,25 +3195,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1714285714285714</v>
+        <v>0.143939393939394</v>
       </c>
       <c r="C71">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D71">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E71">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F71">
-        <v>0.96</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>261</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3257,13 +3221,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1633986928104575</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="C72">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D72">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E72">
         <v>0.04</v>
@@ -3275,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3283,25 +3247,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1597633136094675</v>
+        <v>0.1384180790960452</v>
       </c>
       <c r="C73">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D73">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E73">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F73">
-        <v>0.9299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>142</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3309,25 +3273,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1542857142857143</v>
+        <v>0.1329479768786127</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D74">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3335,25 +3299,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1538461538461539</v>
+        <v>0.1260364842454395</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D75">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E75">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F75">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>165</v>
+        <v>527</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3361,13 +3325,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.152046783625731</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="C76">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D76">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E76">
         <v>0.07000000000000001</v>
@@ -3379,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>145</v>
+        <v>390</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3387,25 +3351,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1510204081632653</v>
+        <v>0.1195652173913044</v>
       </c>
       <c r="C77">
+        <v>33</v>
+      </c>
+      <c r="D77">
         <v>37</v>
       </c>
-      <c r="D77">
-        <v>40</v>
-      </c>
       <c r="E77">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F77">
-        <v>0.9299999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>208</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3413,25 +3377,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1436170212765958</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C78">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D78">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E78">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F78">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3439,25 +3403,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1322869955156951</v>
+        <v>0.1053864168618267</v>
       </c>
       <c r="C79">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D79">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E79">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="F79">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3465,25 +3429,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1218130311614731</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="C80">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D80">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E80">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F80">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>310</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3491,25 +3455,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1095571095571096</v>
+        <v>0.09198113207547169</v>
       </c>
       <c r="C81">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D81">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E81">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F81">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3517,25 +3481,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1079136690647482</v>
+        <v>0.07672634271099744</v>
       </c>
       <c r="C82">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D82">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E82">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="F82">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>248</v>
+        <v>722</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3543,13 +3507,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1072607260726073</v>
+        <v>0.07554671968190854</v>
       </c>
       <c r="C83">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D83">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E83">
         <v>0.03</v>
@@ -3561,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>541</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3569,13 +3533,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.09438775510204081</v>
+        <v>0.06933744221879815</v>
       </c>
       <c r="C84">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D84">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E84">
         <v>0.12</v>
@@ -3587,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>710</v>
+        <v>604</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3595,25 +3559,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.08857142857142856</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="C85">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D85">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E85">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F85">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3621,25 +3585,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.08487654320987655</v>
+        <v>0.05963302752293578</v>
       </c>
       <c r="C86">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D86">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E86">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="F86">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>593</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3647,103 +3611,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.07276995305164319</v>
+        <v>0.05161290322580645</v>
       </c>
       <c r="C87">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D87">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E87">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="F87">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88">
-        <v>0.06613226452905811</v>
-      </c>
-      <c r="C88">
-        <v>33</v>
-      </c>
-      <c r="D88">
-        <v>38</v>
-      </c>
-      <c r="E88">
-        <v>0.13</v>
-      </c>
-      <c r="F88">
-        <v>0.87</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="C89">
-        <v>26</v>
-      </c>
-      <c r="D89">
-        <v>31</v>
-      </c>
-      <c r="E89">
-        <v>0.16</v>
-      </c>
-      <c r="F89">
-        <v>0.84</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90">
-        <v>0.05831533477321815</v>
-      </c>
-      <c r="C90">
-        <v>27</v>
-      </c>
-      <c r="D90">
-        <v>33</v>
-      </c>
-      <c r="E90">
-        <v>0.18</v>
-      </c>
-      <c r="F90">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
